--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,39 +414,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="40" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>S1 A1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="40" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S1 A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>S1 A3</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,22 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +414,46 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>S2 A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S2 A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S2 A3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="25"/>
     </font>
   </fonts>
   <fills count="2">

--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="25"/>
+      <sz val="50"/>
     </font>
   </fonts>
   <fills count="2">

--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="50"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="2">

--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -30,12 +30,18 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,9 +56,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -418,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,11 +434,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>S1 A1</t>
         </is>
       </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -441,12 +459,69 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>S1 A3</t>
         </is>
       </c>
-    </row>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_FILES/Z_TEST2.xlsx
+++ b/DATA_FILES/Z_TEST2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>S1 A1</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -459,69 +448,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>S1 A3</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
     </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-    </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-    </row>
-    <row r="10"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
